--- a/Code/Results/Cases/Case_8_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.42479676741716</v>
+        <v>20.48910710977437</v>
       </c>
       <c r="C2">
-        <v>18.98209129157753</v>
+        <v>20.45356783267547</v>
       </c>
       <c r="D2">
-        <v>2.297367706258292</v>
+        <v>3.392103087981784</v>
       </c>
       <c r="E2">
-        <v>6.728387836467054</v>
+        <v>7.587967174927133</v>
       </c>
       <c r="F2">
-        <v>43.7175252741886</v>
+        <v>37.35538250202337</v>
       </c>
       <c r="G2">
-        <v>2.11722510154533</v>
+        <v>5.437285418514839</v>
       </c>
       <c r="H2">
-        <v>2.66606810977432</v>
+        <v>2.288907743565547</v>
       </c>
       <c r="I2">
-        <v>3.284391141865927</v>
+        <v>2.831695744474385</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>27.00652289274437</v>
+        <v>21.82975011246886</v>
       </c>
       <c r="L2">
-        <v>6.247748862053252</v>
+        <v>17.69771138889524</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.86254878195397</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.307916991486841</v>
       </c>
       <c r="O2">
-        <v>15.56332882567339</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.01698270559837</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.03880676003154</v>
+        <v>19.13828869202053</v>
       </c>
       <c r="C3">
-        <v>17.70804024262669</v>
+        <v>19.02886452016563</v>
       </c>
       <c r="D3">
-        <v>2.225164613409131</v>
+        <v>3.338349592320916</v>
       </c>
       <c r="E3">
-        <v>6.448211673249073</v>
+        <v>7.371685765404798</v>
       </c>
       <c r="F3">
-        <v>41.8559851134553</v>
+        <v>35.96202031742072</v>
       </c>
       <c r="G3">
-        <v>2.124683280321615</v>
+        <v>6.303907252794031</v>
       </c>
       <c r="H3">
-        <v>3.00993133563818</v>
+        <v>2.566355210000098</v>
       </c>
       <c r="I3">
-        <v>3.567048704284912</v>
+        <v>3.037915956580393</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>26.14808917940173</v>
+        <v>21.37227775133134</v>
       </c>
       <c r="L3">
-        <v>6.073673214635917</v>
+        <v>17.5210470998197</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.34274690920305</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.189117110475005</v>
       </c>
       <c r="O3">
-        <v>14.74013274516025</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.13145415365168</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15390869196013</v>
+        <v>18.25841762053721</v>
       </c>
       <c r="C4">
-        <v>16.90075516388774</v>
+        <v>18.10618683827522</v>
       </c>
       <c r="D4">
-        <v>2.181073869433519</v>
+        <v>3.307126861713247</v>
       </c>
       <c r="E4">
-        <v>6.27134459308394</v>
+        <v>7.23581737179089</v>
       </c>
       <c r="F4">
-        <v>40.67297894588074</v>
+        <v>35.0737586354091</v>
       </c>
       <c r="G4">
-        <v>2.129392795803296</v>
+        <v>6.852413009830087</v>
       </c>
       <c r="H4">
-        <v>3.227399312597386</v>
+        <v>2.742285358719748</v>
       </c>
       <c r="I4">
-        <v>3.746222253480534</v>
+        <v>3.169396466872284</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>25.60451598521826</v>
+        <v>21.08045961611776</v>
       </c>
       <c r="L4">
-        <v>5.963325062982411</v>
+        <v>17.40034534278564</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.02868663299754</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.113777494133094</v>
       </c>
       <c r="O4">
-        <v>14.21480784351334</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.56346543631442</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.79280762704268</v>
+        <v>17.88626241436177</v>
       </c>
       <c r="C5">
-        <v>16.5720510050478</v>
+        <v>17.72527847279881</v>
       </c>
       <c r="D5">
-        <v>2.164653797768873</v>
+        <v>3.297988087186801</v>
       </c>
       <c r="E5">
-        <v>6.199244638542052</v>
+        <v>7.180728262204358</v>
       </c>
       <c r="F5">
-        <v>40.14607878417301</v>
+        <v>34.67531778867834</v>
       </c>
       <c r="G5">
-        <v>2.131360092921906</v>
+        <v>7.081691153804397</v>
       </c>
       <c r="H5">
-        <v>3.318240644546364</v>
+        <v>2.815811840904683</v>
       </c>
       <c r="I5">
-        <v>3.823539182487582</v>
+        <v>3.227556427972243</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.35175434936751</v>
+        <v>20.93778873935774</v>
       </c>
       <c r="L5">
-        <v>5.91629775173461</v>
+        <v>17.33127122676153</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.88726143003172</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.081600196773397</v>
       </c>
       <c r="O5">
-        <v>13.99886927830836</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.32849199352166</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73132083088944</v>
+        <v>17.82265112223037</v>
       </c>
       <c r="C6">
-        <v>16.52783567591536</v>
+        <v>17.67009939714806</v>
       </c>
       <c r="D6">
-        <v>2.163817141802855</v>
+        <v>3.300352283820297</v>
       </c>
       <c r="E6">
-        <v>6.188673884107804</v>
+        <v>7.172805000320325</v>
       </c>
       <c r="F6">
-        <v>40.01493826696528</v>
+        <v>34.57379013222647</v>
       </c>
       <c r="G6">
-        <v>2.131706252185576</v>
+        <v>7.12189137381963</v>
       </c>
       <c r="H6">
-        <v>3.334132550115264</v>
+        <v>2.828597796955519</v>
       </c>
       <c r="I6">
-        <v>3.840103443132182</v>
+        <v>3.241588616649312</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.27616956086316</v>
+        <v>20.88820425269364</v>
       </c>
       <c r="L6">
-        <v>5.906989245602361</v>
+        <v>17.2991163770022</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.84543305151045</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.075155283615846</v>
       </c>
       <c r="O6">
-        <v>13.96635938846916</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.29209196770819</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.14676679988813</v>
+        <v>18.24994017255771</v>
       </c>
       <c r="C7">
-        <v>16.92532658531774</v>
+        <v>18.06555919689541</v>
       </c>
       <c r="D7">
-        <v>2.185811627167357</v>
+        <v>3.337523659240201</v>
       </c>
       <c r="E7">
-        <v>6.27434313434308</v>
+        <v>7.24706297921596</v>
       </c>
       <c r="F7">
-        <v>40.54993877910654</v>
+        <v>34.80376577171583</v>
       </c>
       <c r="G7">
-        <v>2.12946629351173</v>
+        <v>6.915691573711627</v>
       </c>
       <c r="H7">
-        <v>3.230534581620249</v>
+        <v>2.747749312608648</v>
       </c>
       <c r="I7">
-        <v>3.756968780379955</v>
+        <v>3.184614343320343</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>25.51087051334919</v>
+        <v>20.90393469571548</v>
       </c>
       <c r="L7">
-        <v>5.958782038120987</v>
+        <v>17.26137574181024</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.90026894130913</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.106192636440706</v>
       </c>
       <c r="O7">
-        <v>14.22163014823796</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.56661808661784</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.95323521632896</v>
+        <v>20.02794675079011</v>
       </c>
       <c r="C8">
-        <v>18.57497892375826</v>
+        <v>19.8199263569748</v>
       </c>
       <c r="D8">
-        <v>2.278396817488534</v>
+        <v>3.454363982266462</v>
       </c>
       <c r="E8">
-        <v>6.63775203519545</v>
+        <v>7.546299188404479</v>
       </c>
       <c r="F8">
-        <v>42.93845906740836</v>
+        <v>36.22560744267456</v>
       </c>
       <c r="G8">
-        <v>2.119830693349484</v>
+        <v>6.014818435104972</v>
       </c>
       <c r="H8">
-        <v>2.78581932735337</v>
+        <v>2.395216744087187</v>
       </c>
       <c r="I8">
-        <v>3.393394604281921</v>
+        <v>2.926325135924121</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>26.59901293849503</v>
+        <v>21.25006443262393</v>
       </c>
       <c r="L8">
-        <v>6.183438790699302</v>
+        <v>17.31275610151547</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.36532846674239</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.250126553664959</v>
       </c>
       <c r="O8">
-        <v>15.29566788292746</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.72108538713584</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.1398276649772</v>
+        <v>23.12386754060046</v>
       </c>
       <c r="C9">
-        <v>21.58618074575798</v>
+        <v>23.0619696768723</v>
       </c>
       <c r="D9">
-        <v>2.454976001057237</v>
+        <v>3.602461524030141</v>
       </c>
       <c r="E9">
-        <v>7.306248862648314</v>
+        <v>8.070239630287697</v>
       </c>
       <c r="F9">
-        <v>47.48095077605073</v>
+        <v>39.52761264409833</v>
       </c>
       <c r="G9">
-        <v>2.101833363683444</v>
+        <v>4.08419201320645</v>
       </c>
       <c r="H9">
-        <v>1.958339253575107</v>
+        <v>1.733250862352278</v>
       </c>
       <c r="I9">
-        <v>2.707229387885373</v>
+        <v>2.53653023512848</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.7478954182199</v>
+        <v>22.34256843195178</v>
       </c>
       <c r="L9">
-        <v>6.603501837415966</v>
+        <v>17.71002030116712</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.67488274930359</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.533845661346254</v>
       </c>
       <c r="O9">
-        <v>17.22298719614655</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.7803255270107</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.26329940485453</v>
+        <v>25.17709324079977</v>
       </c>
       <c r="C10">
-        <v>23.56051199014107</v>
+        <v>24.87834730175087</v>
       </c>
       <c r="D10">
-        <v>2.601894145311825</v>
+        <v>3.834098680858534</v>
       </c>
       <c r="E10">
-        <v>7.67222056622463</v>
+        <v>8.370364417219802</v>
       </c>
       <c r="F10">
-        <v>50.0328338992586</v>
+        <v>40.512533764749</v>
       </c>
       <c r="G10">
-        <v>2.089445164572423</v>
+        <v>4.35024310044605</v>
       </c>
       <c r="H10">
-        <v>1.724782527391989</v>
+        <v>1.815014872179345</v>
       </c>
       <c r="I10">
-        <v>2.716693746576811</v>
+        <v>2.854137490504118</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>29.86796022992166</v>
+        <v>22.30269806143358</v>
       </c>
       <c r="L10">
-        <v>6.818935912058737</v>
+        <v>17.37121728586081</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.02265400075544</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.642861896531076</v>
       </c>
       <c r="O10">
-        <v>18.44534538066758</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.05949168396266</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.34074493023107</v>
+        <v>26.24701743412859</v>
       </c>
       <c r="C11">
-        <v>23.89077535306539</v>
+        <v>24.49849223897937</v>
       </c>
       <c r="D11">
-        <v>2.774261993828109</v>
+        <v>4.065198086298538</v>
       </c>
       <c r="E11">
-        <v>7.079438259388427</v>
+        <v>7.68314262059384</v>
       </c>
       <c r="F11">
-        <v>46.58046515252487</v>
+        <v>35.97099705224306</v>
       </c>
       <c r="G11">
-        <v>2.086391989901478</v>
+        <v>8.050702079159414</v>
       </c>
       <c r="H11">
-        <v>2.724047203180537</v>
+        <v>2.751493991539429</v>
       </c>
       <c r="I11">
-        <v>2.83709242457384</v>
+        <v>2.923526621860214</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.44490293700371</v>
+        <v>19.40757537887765</v>
       </c>
       <c r="L11">
-        <v>6.350893385281053</v>
+        <v>15.16202279956816</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.90438725012314</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.191794647303559</v>
       </c>
       <c r="O11">
-        <v>18.18976913875549</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.73343258377005</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.82697527367931</v>
+        <v>26.74403013181691</v>
       </c>
       <c r="C12">
-        <v>23.72924489004376</v>
+        <v>23.93411502939263</v>
       </c>
       <c r="D12">
-        <v>2.875690345454736</v>
+        <v>4.104885271608763</v>
       </c>
       <c r="E12">
-        <v>6.730634018221572</v>
+        <v>7.185249695294127</v>
       </c>
       <c r="F12">
-        <v>43.25544865430872</v>
+        <v>32.55080078953412</v>
       </c>
       <c r="G12">
-        <v>2.086135682107016</v>
+        <v>9.920760744990842</v>
       </c>
       <c r="H12">
-        <v>4.038494555858079</v>
+        <v>4.054157024956612</v>
       </c>
       <c r="I12">
-        <v>2.846420947030754</v>
+        <v>2.924793991398417</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.29143497940754</v>
+        <v>17.45513522605248</v>
       </c>
       <c r="L12">
-        <v>6.058559615553497</v>
+        <v>13.75477854688468</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.38569629588518</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.956442234806034</v>
       </c>
       <c r="O12">
-        <v>17.69823492120443</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.17963460658252</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90062509886452</v>
+        <v>26.84383681412189</v>
       </c>
       <c r="C13">
-        <v>23.20629641625864</v>
+        <v>23.31360098030501</v>
       </c>
       <c r="D13">
-        <v>2.933854451430136</v>
+        <v>3.973884970773801</v>
       </c>
       <c r="E13">
-        <v>6.575828831226263</v>
+        <v>6.862928213597831</v>
       </c>
       <c r="F13">
-        <v>39.60279856159662</v>
+        <v>29.92528788023954</v>
       </c>
       <c r="G13">
-        <v>2.088085959525491</v>
+        <v>9.55214647604179</v>
       </c>
       <c r="H13">
-        <v>5.492756773586165</v>
+        <v>5.474061162931877</v>
       </c>
       <c r="I13">
-        <v>2.774489300831904</v>
+        <v>2.881258277727199</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.06635161416729</v>
+        <v>16.16465092339035</v>
       </c>
       <c r="L13">
-        <v>5.892855569610854</v>
+        <v>12.87966885918764</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.30569747223666</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.876036855187931</v>
       </c>
       <c r="O13">
-        <v>16.99413890142689</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.41482869735646</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.76715320771305</v>
+        <v>26.73500813330614</v>
       </c>
       <c r="C14">
-        <v>22.67616494823231</v>
+        <v>22.84484074512972</v>
       </c>
       <c r="D14">
-        <v>2.954269712195844</v>
+        <v>3.825064157721816</v>
       </c>
       <c r="E14">
-        <v>6.597716604964001</v>
+        <v>6.792505594767941</v>
       </c>
       <c r="F14">
-        <v>36.84269504897137</v>
+        <v>28.37813356905641</v>
       </c>
       <c r="G14">
-        <v>2.090436458229161</v>
+        <v>8.328415255095104</v>
       </c>
       <c r="H14">
-        <v>6.530120142791497</v>
+        <v>6.504590665927486</v>
       </c>
       <c r="I14">
-        <v>2.689308569773579</v>
+        <v>2.831367192597986</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.45734384107949</v>
+        <v>15.5130795129121</v>
       </c>
       <c r="L14">
-        <v>5.861233717064925</v>
+        <v>12.46173997932816</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.71917848964733</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.906875517696789</v>
       </c>
       <c r="O14">
-        <v>16.39850815094507</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.77498816871903</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.64463986080007</v>
+        <v>26.62170280392189</v>
       </c>
       <c r="C15">
-        <v>22.47627065484082</v>
+        <v>22.71513424992632</v>
       </c>
       <c r="D15">
-        <v>2.951240942908297</v>
+        <v>3.76847419824425</v>
       </c>
       <c r="E15">
-        <v>6.60852468411529</v>
+        <v>6.795745246587546</v>
       </c>
       <c r="F15">
-        <v>36.06190338614773</v>
+        <v>28.10566113907228</v>
       </c>
       <c r="G15">
-        <v>2.091521193151562</v>
+        <v>7.631323423351052</v>
       </c>
       <c r="H15">
-        <v>6.773027673601735</v>
+        <v>6.743872094909091</v>
       </c>
       <c r="I15">
-        <v>2.651930877063797</v>
+        <v>2.810454602045053</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.02222023179486</v>
+        <v>15.43828398484863</v>
       </c>
       <c r="L15">
-        <v>5.859420154333461</v>
+        <v>12.42385994258189</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.632725802515</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.922716797978171</v>
       </c>
       <c r="O15">
-        <v>16.21051843867118</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.57509747487326</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.77403620419318</v>
+        <v>25.77980070250319</v>
       </c>
       <c r="C16">
-        <v>21.74467932503459</v>
+        <v>22.45659538769878</v>
       </c>
       <c r="D16">
-        <v>2.876958080350246</v>
+        <v>3.572960296587934</v>
       </c>
       <c r="E16">
-        <v>6.461330675355061</v>
+        <v>6.754557759766286</v>
       </c>
       <c r="F16">
-        <v>35.46978594317293</v>
+        <v>29.22061054409561</v>
       </c>
       <c r="G16">
-        <v>2.096420272651971</v>
+        <v>4.639124451936357</v>
       </c>
       <c r="H16">
-        <v>6.596660217632823</v>
+        <v>6.544199779681676</v>
       </c>
       <c r="I16">
-        <v>2.53892259829689</v>
+        <v>2.704330796450604</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.87753313376042</v>
+        <v>16.29996783424332</v>
       </c>
       <c r="L16">
-        <v>5.789764679967662</v>
+        <v>13.08862243555614</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.21936366180539</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.888668929013298</v>
       </c>
       <c r="O16">
-        <v>15.80806799482174</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.16725721208556</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.16395213280865</v>
+        <v>25.17844241413518</v>
       </c>
       <c r="C17">
-        <v>21.47029957208816</v>
+        <v>22.44749730927797</v>
       </c>
       <c r="D17">
-        <v>2.810228395977734</v>
+        <v>3.513356112154903</v>
       </c>
       <c r="E17">
-        <v>6.309020837372486</v>
+        <v>6.70085567107698</v>
       </c>
       <c r="F17">
-        <v>36.52391704118654</v>
+        <v>30.74249822775074</v>
       </c>
       <c r="G17">
-        <v>2.098951230184355</v>
+        <v>3.804102920553393</v>
       </c>
       <c r="H17">
-        <v>5.886662339364938</v>
+        <v>5.814212195752501</v>
       </c>
       <c r="I17">
-        <v>2.636122698715816</v>
+        <v>2.647582212653877</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.62618093910061</v>
+        <v>17.23650950520282</v>
       </c>
       <c r="L17">
-        <v>5.736360269802475</v>
+        <v>13.79824043187032</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.9021476049952</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.837057258752237</v>
       </c>
       <c r="O17">
-        <v>15.82600041861311</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.20388498484643</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.72411113980333</v>
+        <v>24.73163274470585</v>
       </c>
       <c r="C18">
-        <v>21.54870739098608</v>
+        <v>22.73986094015754</v>
       </c>
       <c r="D18">
-        <v>2.736706027362567</v>
+        <v>3.507915457633035</v>
       </c>
       <c r="E18">
-        <v>6.280570572761575</v>
+        <v>6.772392178672184</v>
       </c>
       <c r="F18">
-        <v>39.20883417793831</v>
+        <v>33.15834126804399</v>
       </c>
       <c r="G18">
-        <v>2.099583708247784</v>
+        <v>3.575616048007514</v>
       </c>
       <c r="H18">
-        <v>4.65906136034307</v>
+        <v>4.564277926939431</v>
       </c>
       <c r="I18">
-        <v>2.651541545485447</v>
+        <v>2.627416303544446</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.31999393044301</v>
+        <v>18.58824410698263</v>
       </c>
       <c r="L18">
-        <v>5.781476980995895</v>
+        <v>14.79960545361576</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.93691291992373</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.851104638130429</v>
       </c>
       <c r="O18">
-        <v>16.20210758334856</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.62765318670586</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.45825445902042</v>
+        <v>24.44753437832988</v>
       </c>
       <c r="C19">
-        <v>21.94482239382076</v>
+        <v>23.32379803912575</v>
       </c>
       <c r="D19">
-        <v>2.66072230036439</v>
+        <v>3.551981944978646</v>
       </c>
       <c r="E19">
-        <v>6.565655943229028</v>
+        <v>7.150206024848179</v>
       </c>
       <c r="F19">
-        <v>42.81750128430568</v>
+        <v>36.08534326905125</v>
       </c>
       <c r="G19">
-        <v>2.098553596313269</v>
+        <v>3.410480637718349</v>
       </c>
       <c r="H19">
-        <v>3.195872729832782</v>
+        <v>3.071216107703049</v>
       </c>
       <c r="I19">
-        <v>2.617186961786864</v>
+        <v>2.655294536675239</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.54120224310022</v>
+        <v>20.1697837102448</v>
       </c>
       <c r="L19">
-        <v>6.02587780641823</v>
+        <v>15.95966801719398</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.16919784755918</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.034231744444945</v>
       </c>
       <c r="O19">
-        <v>16.84345824713843</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.33423604883712</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.7138724794672</v>
+        <v>24.65094360648806</v>
       </c>
       <c r="C20">
-        <v>23.11739467120751</v>
+        <v>24.62783277181995</v>
       </c>
       <c r="D20">
-        <v>2.575924572042275</v>
+        <v>3.731662963346527</v>
       </c>
       <c r="E20">
-        <v>7.581799495567977</v>
+        <v>8.268944118793959</v>
       </c>
       <c r="F20">
-        <v>49.04992768465679</v>
+        <v>40.51004586093117</v>
       </c>
       <c r="G20">
-        <v>2.092812751911253</v>
+        <v>3.327466163329316</v>
       </c>
       <c r="H20">
-        <v>1.573876599345818</v>
+        <v>1.709637805423645</v>
       </c>
       <c r="I20">
-        <v>2.606877093407668</v>
+        <v>2.793845670340072</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.3190251224939</v>
+        <v>22.44468817967527</v>
       </c>
       <c r="L20">
-        <v>6.748870369539568</v>
+        <v>17.55556061551254</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.03277895335724</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.617218101899448</v>
       </c>
       <c r="O20">
-        <v>18.15054846093665</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.75196044281662</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.24260070161771</v>
+        <v>26.10558475139311</v>
       </c>
       <c r="C21">
-        <v>24.65978304939501</v>
+        <v>25.25233950658917</v>
       </c>
       <c r="D21">
-        <v>2.668059154225889</v>
+        <v>4.346754529579836</v>
       </c>
       <c r="E21">
-        <v>8.018431555296015</v>
+        <v>8.829299310589359</v>
       </c>
       <c r="F21">
-        <v>51.81435784120744</v>
+        <v>39.29483491232651</v>
       </c>
       <c r="G21">
-        <v>2.082952596508219</v>
+        <v>9.622565943759021</v>
       </c>
       <c r="H21">
-        <v>2.016590191975957</v>
+        <v>2.000522247308065</v>
       </c>
       <c r="I21">
-        <v>2.966314778840199</v>
+        <v>2.997411003461639</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.71581914235673</v>
+        <v>21.11727572036995</v>
       </c>
       <c r="L21">
-        <v>7.029305589284998</v>
+        <v>16.36840278467242</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.28268108648345</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.733389242505823</v>
       </c>
       <c r="O21">
-        <v>19.19258078697706</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.81474878685434</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.21416401190195</v>
+        <v>27.02913837903903</v>
       </c>
       <c r="C22">
-        <v>25.57761577191825</v>
+        <v>25.53037086867788</v>
       </c>
       <c r="D22">
-        <v>2.730537198821532</v>
+        <v>4.793464391898938</v>
       </c>
       <c r="E22">
-        <v>8.241960378605265</v>
+        <v>9.149336085323124</v>
       </c>
       <c r="F22">
-        <v>53.42858044608641</v>
+        <v>38.23349092243011</v>
       </c>
       <c r="G22">
-        <v>2.076671915915928</v>
+        <v>14.59229342548901</v>
       </c>
       <c r="H22">
-        <v>2.296253922990732</v>
+        <v>2.182980631622495</v>
       </c>
       <c r="I22">
-        <v>3.191749804577192</v>
+        <v>3.12177099110174</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.53844999397181</v>
+        <v>20.11771868102263</v>
       </c>
       <c r="L22">
-        <v>7.175560746906006</v>
+        <v>15.52143257742311</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.67831773957059</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.775875909703936</v>
       </c>
       <c r="O22">
-        <v>19.7971114031747</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.42332664065444</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.70249620728277</v>
+        <v>26.54378265476869</v>
       </c>
       <c r="C23">
-        <v>25.06713294165467</v>
+        <v>25.47647129950457</v>
       </c>
       <c r="D23">
-        <v>2.692540732201007</v>
+        <v>4.474393857243003</v>
       </c>
       <c r="E23">
-        <v>8.11926078822856</v>
+        <v>8.950751910662298</v>
       </c>
       <c r="F23">
-        <v>52.67967473861916</v>
+        <v>39.2439039752784</v>
       </c>
       <c r="G23">
-        <v>2.079969061700933</v>
+        <v>11.11397520080329</v>
       </c>
       <c r="H23">
-        <v>2.149300203446696</v>
+        <v>2.092406827774384</v>
       </c>
       <c r="I23">
-        <v>3.068641770426124</v>
+        <v>3.055508967415175</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31.1903443281572</v>
+        <v>20.94370357468503</v>
       </c>
       <c r="L23">
-        <v>7.101746380214995</v>
+        <v>16.17843582751226</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.23439711900692</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.764621739070116</v>
       </c>
       <c r="O23">
-        <v>19.46782519645776</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.09821850309266</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.67758293561507</v>
+        <v>24.61199981843619</v>
       </c>
       <c r="C24">
-        <v>23.10577593232641</v>
+        <v>24.64786791292934</v>
       </c>
       <c r="D24">
-        <v>2.557497035138473</v>
+        <v>3.714764333438369</v>
       </c>
       <c r="E24">
-        <v>7.65373182200308</v>
+        <v>8.348231942643498</v>
       </c>
       <c r="F24">
-        <v>49.59235841994257</v>
+        <v>40.97008732653221</v>
       </c>
       <c r="G24">
-        <v>2.092662370679251</v>
+        <v>3.273836153673341</v>
       </c>
       <c r="H24">
-        <v>1.582914208472442</v>
+        <v>1.717291679706826</v>
       </c>
       <c r="I24">
-        <v>2.603024300862492</v>
+        <v>2.786810137795086</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.69928985190507</v>
+        <v>22.74095487197581</v>
       </c>
       <c r="L24">
-        <v>6.810868999617924</v>
+        <v>17.77633483391394</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.25869953089431</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.671379841206006</v>
       </c>
       <c r="O24">
-        <v>18.19389467507423</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.8043632939687</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.31434104201633</v>
+        <v>22.32530215082232</v>
       </c>
       <c r="C25">
-        <v>20.84614489568876</v>
+        <v>22.33007774896389</v>
       </c>
       <c r="D25">
-        <v>2.414449551171201</v>
+        <v>3.551217410973537</v>
       </c>
       <c r="E25">
-        <v>7.135610124102998</v>
+        <v>7.925578490391179</v>
       </c>
       <c r="F25">
-        <v>46.10452793531375</v>
+        <v>38.73148732917531</v>
       </c>
       <c r="G25">
-        <v>2.10668458501199</v>
+        <v>4.406237165631258</v>
       </c>
       <c r="H25">
-        <v>2.180686188492046</v>
+        <v>1.905915564133332</v>
       </c>
       <c r="I25">
-        <v>2.907522687765573</v>
+        <v>2.577387244778896</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28.03341668104386</v>
+        <v>22.07953085227072</v>
       </c>
       <c r="L25">
-        <v>6.486174978690655</v>
+        <v>17.63015968638647</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.33669880822405</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.45994719524502</v>
       </c>
       <c r="O25">
-        <v>16.73455454329266</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>17.25943551590384</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
